--- a/DOM_Banner/output/dept_banner/Indu Partha_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Indu Partha_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,369 +360,164 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Michelle Daniel, Michael Gottlieb, Darcy Wooten, Jennifer Stojan, Mary R. Haas, Jacob Bailey, Sean Evans, Daniel Lee, Charles Goldberg, Jorge Fernandez, Simerjot K Jassal, Frances Rudolf, Kama Z. Guluma, Lina Lander, Emily Pott, Nicole H. Goldhaber, Satid Thammasitboon, Hussein Uraiby, Ciaran Grafton-Clarke, Morris Gordon, Teresa Pawlikowska, Janet Corral, Indu Partha, Karyn B. Kolman, Jennifer Westrick, Diana Dolmans</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4308834870</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Virtual interviewing for graduate medical education recruitment and selection: A BEME systematic review: BEME Guide No. 80</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5006335101", "https://openalex.org/A5018567151", "https://openalex.org/A5079113183", "https://openalex.org/A5022224833", "https://openalex.org/A5050873603", "https://openalex.org/A5047493867", "https://openalex.org/A5055446818", "https://openalex.org/A5046928489", "https://openalex.org/A5068628178", "https://openalex.org/A5089844791", "https://openalex.org/A5055310842", "https://openalex.org/A5084903178", "https://openalex.org/A5044523333", "https://openalex.org/A5017796350", 
-"https://openalex.org/A5001426559", "https://openalex.org/A5058183957", "https://openalex.org/A5064362729", "https://openalex.org/A5071162637", "https://openalex.org/A5029772193", "https://openalex.org/A5018565270", "https://openalex.org/A5065521092", "https://openalex.org/A5079749522", "https://openalex.org/A5077319214", "https://openalex.org/A5013274320", "https://openalex.org/A5076921400", "https://openalex.org/A5002810077"), au_display_name = c("Michelle Daniel", "Michael Gottlieb", "Darcy Wooten", 
-"Jennifer Stojan", "Mary R. Haas", "Jacob Bailey", "Sean Evans", "Daniel Lee", "Charles Goldberg", "Jorge Fernandez", "Simerjot K Jassal", "Frances Rudolf", "Kama Z. Guluma", "Lina Lander", "Emily Pott", "Nicole H. Goldhaber", "Satid Thammasitboon", "Hussein Uraiby", "Ciaran Grafton-Clarke", "Morris Gordon", "Teresa Pawlikowska", "Janet Corral", "Indu Partha", "Karyn B. Kolman", "Jennifer Westrick", "Diana Dolmans"), au_orcid = c("https://orcid.org/0000-0001-8961-7119", "https://orcid.org/0000-0003-3276-8375", 
-NA, "https://orcid.org/0000-0002-7743-8014", "https://orcid.org/0000-0002-9506-5928", NA, NA, "https://orcid.org/0000-0001-9447-4175", "https://orcid.org/0000-0002-3491-8480", NA, "https://orcid.org/0000-0001-6781-2220", NA, NA, "https://orcid.org/0000-0002-6180-223X", NA, "https://orcid.org/0000-0002-3847-3634", "https://orcid.org/0000-0001-6896-092X", "https://orcid.org/0000-0002-5797-9227", "https://orcid.org/0000-0002-8537-0806", "https://orcid.org/0000-0002-1216-5158", "https://orcid.org/0000-0001-8432-3488", 
-NA, NA, NA, "https://orcid.org/0000-0002-3606-3957", "https://orcid.org/0000-0002-4802-1156"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("School of Medicine, University of California, San Diego, San Diego, CA, USA.", "Rush University Medical Center, Chicago, IL, USA.", 
-"School of Medicine, University of California, San Diego, San Diego, CA, USA.", "University of Michigan Medical School, Ann Arbor, MI, USA.", "University of Michigan Medical School, Ann Arbor, MI, USA.", "School of Medicine, University of California, San Diego, San Diego, CA, USA.", "School of Medicine, University of California, San Diego, San Diego, CA, USA.", "School of Medicine, University of California, San Diego, San Diego, CA, USA.", "School of Medicine, University of California, San Diego, San Diego, CA, USA.; VA San Diego Healthcare, San Diego, CA, USA.", 
-"School of Medicine, University of California, San Diego, San Diego, CA, USA.", "School of Medicine, University of California, San Diego, San Diego, CA, USA.; VA San Diego Healthcare, San Diego, CA, USA.", "School of Medicine, University of California, San Diego, San Diego, CA, USA.", "School of Medicine, University of California, San Diego, San Diego, CA, USA.", "School of Medicine, University of California, San Diego, San Diego, CA, USA.", "School of Medicine, University of California, San Diego, San Diego, CA, USA.", 
-"School of Medicine, University of California, San Diego, San Diego, CA, USA.", "Baylor College of Medicine, Houston, TX, USA.", "University Hospitals of Leicester NHS Trust, Leicester, UK.", "School of Medicine, University of East Anglia, Norwich, UK.", "Biomedical Evidence Synthesis and Translation to Practice (BEST) Unit, School of Medicine, University of Central Lancashire, Preston, UK.", "Health Professions Education Centre (HPEC), RCSI University of Medicine and Health Sciences, Dublin, IE.", 
-"University of Nevada School of Medicine, Reno, NV, USA.", "University of Arizona College of Medicine, Tuscon, AZ, USA.", "University of Arizona College of Medicine, Tuscon, AZ, USA.", "Rush University Medical Center, Chicago, IL, USA.", "Faculty of Health, Medicine and Life Sciences, Maastricht University, Maastricht, the Netherlands."), institution_id = c("https://openalex.org/I36258959", "https://openalex.org/I1285301757", "https://openalex.org/I36258959", "https://openalex.org/I27837315", "https://openalex.org/I27837315", 
-"https://openalex.org/I36258959", "https://openalex.org/I36258959", "https://openalex.org/I36258959", "https://openalex.org/I36258959", "https://openalex.org/I36258959", "https://openalex.org/I36258959", "https://openalex.org/I36258959", "https://openalex.org/I36258959", "https://openalex.org/I36258959", "https://openalex.org/I36258959", "https://openalex.org/I36258959", "https://openalex.org/I181547552", "https://openalex.org/I2802445252", "https://openalex.org/I1118541", "https://openalex.org/I185852735", 
-"https://openalex.org/I264019182", "https://openalex.org/I134113660", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I1285301757", "https://openalex.org/I34352273"), institution_display_name = c("University of California, San Diego", "Rush University Medical Center", "University of California, San Diego", "University of Michigan–Ann Arbor", "University of Michigan–Ann Arbor", "University of California, San Diego", "University of California, San Diego", 
-"University of California, San Diego", "University of California, San Diego", "University of California, San Diego", "University of California, San Diego", "University of California, San Diego", "University of California, San Diego", "University of California, San Diego", "University of California, San Diego", "University of California, San Diego", "Baylor College of Medicine", "University Hospitals of Leicester NHS Trust", "University of East Anglia", "University of Central Lancashire", "University of Medicine and Health Sciences", 
-"University of Nevada Reno", "University of Arizona", "University of Arizona", "Rush University Medical Center", "Maastricht University"), institution_ror = c("https://ror.org/0168r3w48", "https://ror.org/01j7c0b24", "https://ror.org/0168r3w48", "https://ror.org/00jmfr291", "https://ror.org/00jmfr291", "https://ror.org/0168r3w48", "https://ror.org/0168r3w48", "https://ror.org/0168r3w48", "https://ror.org/0168r3w48", "https://ror.org/0168r3w48", "https://ror.org/0168r3w48", "https://ror.org/0168r3w48", 
-"https://ror.org/0168r3w48", "https://ror.org/0168r3w48", "https://ror.org/0168r3w48", "https://ror.org/0168r3w48", "https://ror.org/02pttbw34", "https://ror.org/02fha3693", "https://ror.org/026k5mg93", "https://ror.org/010jbqd54", "https://ror.org/01p6z3b24", "https://ror.org/01keh0577", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/01j7c0b24", "https://ror.org/02jz4aj89"), institution_country_code = c("US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", 
-"US", "US", "US", "US", "US", "US", "GB", "GB", "GB", "KN", "US", "US", "US", "US", "NL"), institution_type = c("education", "healthcare", "education", "education", "education", "education", "education", "education", "education", "education", "education", "education", "education", "education", "education", "education", "education", "healthcare", "education", "education", "education", "education", "education", "education", "healthcare", "education"), institution_lineage = c("https://openalex.org/I2803209242, https://openalex.org/I36258959", 
-"https://openalex.org/I1285301757", "https://openalex.org/I2803209242, https://openalex.org/I36258959", "https://openalex.org/I27837315", "https://openalex.org/I27837315", "https://openalex.org/I2803209242, https://openalex.org/I36258959", "https://openalex.org/I2803209242, https://openalex.org/I36258959", "https://openalex.org/I2803209242, https://openalex.org/I36258959", "https://openalex.org/I2803209242, https://openalex.org/I36258959", "https://openalex.org/I2803209242, https://openalex.org/I36258959", 
-"https://openalex.org/I2803209242, https://openalex.org/I36258959", "https://openalex.org/I2803209242, https://openalex.org/I36258959", "https://openalex.org/I2803209242, https://openalex.org/I36258959", "https://openalex.org/I2803209242, https://openalex.org/I36258959", "https://openalex.org/I2803209242, https://openalex.org/I36258959", "https://openalex.org/I2803209242, https://openalex.org/I36258959", "https://openalex.org/I181547552, https://openalex.org/I2801539370", "https://openalex.org/I2802445252", 
-"https://openalex.org/I1118541", "https://openalex.org/I185852735", "https://openalex.org/I264019182", "https://openalex.org/I134113660, https://openalex.org/I68260882", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I1285301757", "https://openalex.org/I34352273"))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The COVID-19 pandemic caused graduate medical education (GME) programs to pivot to virtual interviews (VIs) for recruitment and selection. This systematic review synthesizes the rapidly expanding evidence base on VIs, providing insights into preferred formats, strengths, and weaknesses.PubMed/MEDLINE, Scopus, ERIC, PsycINFO, MedEdPublish, and Google Scholar were searched from 1 January 2012 to 21 February 2022. Two authors independently screened titles, abstracts, full texts, performed data extraction, and assessed risk of bias using the Medical Education Research Quality Instrument. Findings were reported according to Best Evidence in Medical Education guidance.One hundred ten studies were included. The majority (97%) were from North America. Fourteen were conducted before COVID-19 and 96 during the pandemic. Studies involved both medical students applying to residencies (61%) and residents applying to fellowships (39%). Surgical specialties were more represented than other specialties. Applicants preferred VI days that lasted 4-6 h, with three to five individual interviews (15-20 min each), with virtual tours and opportunities to connect with current faculty and trainees. Satisfaction with VIs was high, though both applicants and programs found VIs inferior to in-person interviews for assessing 'fit.' Confidence in ranking applicants and programs was decreased. Stakeholders universally noted significant cost and time savings with VIs, as well as equity gains and reduced carbon footprint due to eliminating travel.The use of VIs for GME recruitment and selection has accelerated rapidly. The findings of this review offer early insights that can guide future practice, policy, and research.</t>
+          <t>2022-11-12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-11-12</t>
+          <t>Medical Teacher</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Medical Teacher</t>
+          <t>Taylor &amp; Francis</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S135934248</t>
+          <t>https://doi.org/10.1080/0142159x.2022.2130038</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Taylor &amp; Francis</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0142-159X</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36369939</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1080/0142159x.2022.2130038</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>1313</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>1331</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://cris.maastrichtuniversity.nl/files/115366555/Dolmans_2022_Virtual_interviewing_for_graduate_medical.pdf</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4308834870</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4308834870", doi = "https://doi.org/10.1080/0142159x.2022.2130038", pmid = "https://pubmed.ncbi.nlm.nih.gov/36369939")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1080/0142159x.2022.2130038</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1869792929", "https://openalex.org/W1938155200", "https://openalex.org/W1982912334", "https://openalex.org/W1986191945", "https://openalex.org/W2004978615", "https://openalex.org/W2046130917", "https://openalex.org/W2073745702", "https://openalex.org/W2076134402", "https://openalex.org/W2077950880", "https://openalex.org/W2098020237", "https://openalex.org/W2145606534", "https://openalex.org/W2154631598", "https://openalex.org/W2262372047", "https://openalex.org/W2289170923", 
-"https://openalex.org/W2323202480", "https://openalex.org/W2333944107", "https://openalex.org/W2396414312", "https://openalex.org/W2470516116", "https://openalex.org/W2471940872", "https://openalex.org/W2472495675", "https://openalex.org/W2553671509", "https://openalex.org/W2581120317", "https://openalex.org/W2582370442", "https://openalex.org/W2768039532", "https://openalex.org/W2774587119", "https://openalex.org/W2805254305", "https://openalex.org/W2892314458", "https://openalex.org/W2893119993", 
-"https://openalex.org/W2897895600", "https://openalex.org/W2922076937", "https://openalex.org/W2959232901", "https://openalex.org/W2979925813", "https://openalex.org/W2995424678", "https://openalex.org/W2995982636", "https://openalex.org/W3001994114", "https://openalex.org/W3024688553", "https://openalex.org/W3040795302", "https://openalex.org/W3086659120", "https://openalex.org/W3087708950", "https://openalex.org/W3092103681", "https://openalex.org/W3092974340", "https://openalex.org/W3093321573", 
-"https://openalex.org/W3093531176", "https://openalex.org/W3095150750", "https://openalex.org/W3105251966", "https://openalex.org/W3108060520", "https://openalex.org/W3109739975", "https://openalex.org/W3118670943", "https://openalex.org/W3119125211", "https://openalex.org/W3121039093", "https://openalex.org/W3123569354", "https://openalex.org/W3128036522", "https://openalex.org/W3134412229", "https://openalex.org/W3135879822", "https://openalex.org/W3135992844", "https://openalex.org/W3150820636", 
-"https://openalex.org/W3155744439", "https://openalex.org/W3156006306", "https://openalex.org/W3159440541", "https://openalex.org/W3161505908", "https://openalex.org/W3162038072", "https://openalex.org/W3162855126", "https://openalex.org/W3164098637", "https://openalex.org/W3164685037", "https://openalex.org/W3165330281", "https://openalex.org/W3165659572", "https://openalex.org/W3170214655", "https://openalex.org/W3171385801", "https://openalex.org/W3173785434", "https://openalex.org/W3176492622", 
-"https://openalex.org/W3176849852", "https://openalex.org/W3177551253", "https://openalex.org/W3180342543", "https://openalex.org/W3180921860", "https://openalex.org/W3181188420", "https://openalex.org/W3183360702", "https://openalex.org/W3184392907", "https://openalex.org/W3184801722", "https://openalex.org/W3184815472", "https://openalex.org/W3187736703", "https://openalex.org/W3188567927", "https://openalex.org/W3189713313", "https://openalex.org/W3190503357", "https://openalex.org/W3190974856", 
-"https://openalex.org/W3192559085", "https://openalex.org/W3193349454", "https://openalex.org/W3194661487", "https://openalex.org/W3194901313", "https://openalex.org/W3195843953", "https://openalex.org/W3201192457", "https://openalex.org/W3201742503", "https://openalex.org/W3202154136", "https://openalex.org/W3203840528", "https://openalex.org/W3205108718", "https://openalex.org/W3208399768", "https://openalex.org/W3208487054", "https://openalex.org/W3208870854", "https://openalex.org/W3209171194", 
-"https://openalex.org/W3211397149", "https://openalex.org/W3214207552", "https://openalex.org/W3215522547", "https://openalex.org/W4200275266", "https://openalex.org/W4200277638", "https://openalex.org/W4200317536", "https://openalex.org/W4205186865", "https://openalex.org/W4205343025", "https://openalex.org/W4205871236", "https://openalex.org/W4206123283", "https://openalex.org/W4206657539", "https://openalex.org/W4206738460", "https://openalex.org/W4207064450", "https://openalex.org/W4207067467", 
-"https://openalex.org/W4210371255", "https://openalex.org/W4210943928", "https://openalex.org/W4212997191", "https://openalex.org/W4226109004", "https://openalex.org/W4226308947", "https://openalex.org/W4281383439")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2765546016", "https://openalex.org/W1631448561", "https://openalex.org/W4285156838", "https://openalex.org/W2123277565", "https://openalex.org/W2804875090", "https://openalex.org/W1997929875", "https://openalex.org/W2476517534", "https://openalex.org/W2007960770", "https://openalex.org/W2183187020", "https://openalex.org/W2509459056")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Indu Partha_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Indu Partha_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>School of Medicine, University of California, San Diego, San Diego, CA, USA.; Rush University Medical Center, Chicago, IL, USA.; School of Medicine, University of California, San Diego, San Diego, CA, USA.; University of Michigan Medical School, Ann Arbor, MI, USA.; University of Michigan Medical School, Ann Arbor, MI, USA.; School of Medicine, University of California, San Diego, San Diego, CA, USA.; School of Medicine, University of California, San Diego, San Diego, CA, USA.; School of Medicine, University of California, San Diego, San Diego, CA, USA.; School of Medicine, University of California, San Diego, San Diego, CA, USA.; VA San Diego Healthcare, San Diego, CA, USA.; School of Medicine, University of California, San Diego, San Diego, CA, USA.; School of Medicine, University of California, San Diego, San Diego, CA, USA.; VA San Diego Healthcare, San Diego, CA, USA.; School of Medicine, University of California, San Diego, San Diego, CA, USA.; School of Medicine, University of California, San Diego, San Diego, CA, USA.; School of Medicine, University of California, San Diego, San Diego, CA, USA.; School of Medicine, University of California, San Diego, San Diego, CA, USA.; School of Medicine, University of California, San Diego, San Diego, CA, USA.; Baylor College of Medicine, Houston, TX, USA.; University Hospitals of Leicester NHS Trust, Leicester, UK.; School of Medicine, University of East Anglia, Norwich, UK.; Biomedical Evidence Synthesis and Translation to Practice (BEST) Unit, School of Medicine, University of Central Lancashire, Preston, UK.; Health Professions Education Centre (HPEC), RCSI University of Medicine and Health Sciences, Dublin, IE.; University of Nevada School of Medicine, Reno, NV, USA.; University of Arizona College of Medicine, Tuscon, AZ, USA.; University of Arizona College of Medicine, Tuscon, AZ, USA.; Rush University Medical Center, Chicago, IL, USA.; Faculty of Health, Medicine and Life Sciences, Maastricht University, Maastricht, the Netherlands.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4308834870</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Virtual interviewing for graduate medical education recruitment and selection: A BEME systematic review: BEME Guide No. 80</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-11-12</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Medical Teacher</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Taylor &amp; Francis</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1080/0142159x.2022.2130038</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36369939</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1080/0142159x.2022.2130038</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
